--- a/WHL_all_ports_list.xlsx
+++ b/WHL_all_ports_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxxxx\Desktop\港口風力警戒\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxxxx\Desktop\WNI_WEATHER_REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18B216-1126-460E-8DC6-B7978389FCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401259CB-82E0-4AF5-8710-DF8E8A4C72C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="289">
   <si>
     <t>AEJEA</t>
   </si>
@@ -242,9 +242,6 @@
     <t>IDJKT</t>
   </si>
   <si>
-    <t>TANJUNG PRIOK (JAKARTA)</t>
-  </si>
-  <si>
     <t>TJP</t>
   </si>
   <si>
@@ -374,12 +371,6 @@
     <t>HAAE</t>
   </si>
   <si>
-    <t>JPKWS</t>
-  </si>
-  <si>
-    <t>KAWASAKI/HIGASHIOGISHIMA</t>
-  </si>
-  <si>
     <t>KAW</t>
   </si>
   <si>
@@ -428,9 +419,6 @@
     <t>SHM</t>
   </si>
   <si>
-    <t>JPTKY</t>
-  </si>
-  <si>
     <t>TOKYO</t>
   </si>
   <si>
@@ -440,12 +428,6 @@
     <t>JPTYO</t>
   </si>
   <si>
-    <t>TOYOHASHI</t>
-  </si>
-  <si>
-    <t>TOY</t>
-  </si>
-  <si>
     <t>JPUKB</t>
   </si>
   <si>
@@ -458,9 +440,6 @@
     <t>JPYKK</t>
   </si>
   <si>
-    <t>YOKKAICHI</t>
-  </si>
-  <si>
     <t>YKK</t>
   </si>
   <si>
@@ -852,9 +831,6 @@
   </si>
   <si>
     <t>HCM</t>
-  </si>
-  <si>
-    <t>CLVAP</t>
   </si>
   <si>
     <t>VALPARAISO</t>
@@ -924,6 +900,26 @@
   </si>
   <si>
     <t>PUERTO QUETZAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOKKAICHI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLVAP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPKWS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAWASAKI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAKARTA</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1321,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1340,25 +1336,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1432,13 +1428,13 @@
     </row>
     <row r="5" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1570,7 +1566,7 @@
     </row>
     <row r="11" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -1800,13 +1796,13 @@
     </row>
     <row r="21" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>59</v>
@@ -1869,10 +1865,10 @@
     </row>
     <row r="24" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>67</v>
@@ -1892,13 +1888,13 @@
     </row>
     <row r="25" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>66</v>
@@ -1915,13 +1911,13 @@
     </row>
     <row r="26" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>66</v>
@@ -1938,13 +1934,13 @@
     </row>
     <row r="27" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>66</v>
@@ -1961,16 +1957,16 @@
     </row>
     <row r="28" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E28" s="2">
         <v>100345</v>
@@ -1984,16 +1980,16 @@
     </row>
     <row r="29" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2">
         <v>100884</v>
@@ -2007,16 +2003,16 @@
     </row>
     <row r="30" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2">
         <v>100339</v>
@@ -2030,16 +2026,16 @@
     </row>
     <row r="31" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2">
         <v>101139</v>
@@ -2053,16 +2049,16 @@
     </row>
     <row r="32" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2">
         <v>101187</v>
@@ -2076,16 +2072,16 @@
     </row>
     <row r="33" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2">
         <v>101869</v>
@@ -2099,16 +2095,16 @@
     </row>
     <row r="34" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2">
         <v>101911</v>
@@ -2122,16 +2118,16 @@
     </row>
     <row r="35" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E35" s="2">
         <v>100309</v>
@@ -2145,16 +2141,16 @@
     </row>
     <row r="36" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="2">
         <v>100512</v>
@@ -2168,16 +2164,16 @@
     </row>
     <row r="37" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="2">
         <v>100651</v>
@@ -2191,16 +2187,16 @@
     </row>
     <row r="38" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="2">
         <v>100621</v>
@@ -2214,16 +2210,16 @@
     </row>
     <row r="39" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39" s="2">
         <v>100796</v>
@@ -2237,16 +2233,16 @@
     </row>
     <row r="40" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="2">
         <v>101061</v>
@@ -2260,16 +2256,16 @@
     </row>
     <row r="41" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="2">
         <v>101086</v>
@@ -2283,16 +2279,16 @@
     </row>
     <row r="42" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" s="2">
         <v>101158</v>
@@ -2306,16 +2302,16 @@
     </row>
     <row r="43" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2">
         <v>101266</v>
@@ -2329,16 +2325,16 @@
     </row>
     <row r="44" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2">
         <v>101618</v>
@@ -2352,16 +2348,16 @@
     </row>
     <row r="45" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2">
         <v>101833</v>
@@ -2375,338 +2371,338 @@
     </row>
     <row r="46" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2">
-        <v>101838</v>
+        <v>100854</v>
       </c>
       <c r="F46" s="2">
-        <v>34.736699999999999</v>
+        <v>34.643300000000004</v>
       </c>
       <c r="G46" s="2">
-        <v>137.26089999999999</v>
+        <v>135.26669999999999</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2">
-        <v>100854</v>
+        <v>101982</v>
       </c>
       <c r="F47" s="2">
-        <v>34.643300000000004</v>
+        <v>34.965699999999998</v>
       </c>
       <c r="G47" s="2">
-        <v>135.26669999999999</v>
+        <v>136.68010000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2">
-        <v>101982</v>
+        <v>101989</v>
       </c>
       <c r="F48" s="2">
-        <v>34.965699999999998</v>
+        <v>35.436999999999998</v>
       </c>
       <c r="G48" s="2">
-        <v>136.68010000000001</v>
+        <v>139.702</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="E49" s="2">
-        <v>101989</v>
+        <v>101620</v>
       </c>
       <c r="F49" s="2">
-        <v>35.436999999999998</v>
+        <v>10.6533</v>
       </c>
       <c r="G49" s="2">
-        <v>139.702</v>
+        <v>103.4939</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E50" s="2">
-        <v>101620</v>
+        <v>100725</v>
       </c>
       <c r="F50" s="2">
-        <v>10.6533</v>
+        <v>37.423000000000002</v>
       </c>
       <c r="G50" s="2">
-        <v>103.4939</v>
+        <v>126.5949</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E51" s="2">
-        <v>100725</v>
+        <v>100252</v>
       </c>
       <c r="F51" s="2">
-        <v>37.423000000000002</v>
+        <v>35.107100000000003</v>
       </c>
       <c r="G51" s="2">
-        <v>126.5949</v>
+        <v>129.05410000000001</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E52" s="2">
-        <v>100252</v>
+        <v>101882</v>
       </c>
       <c r="F52" s="2">
-        <v>35.107100000000003</v>
+        <v>35.457099999999997</v>
       </c>
       <c r="G52" s="2">
-        <v>129.05410000000001</v>
+        <v>129.40020000000001</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E53" s="2">
-        <v>101882</v>
+        <v>100334</v>
       </c>
       <c r="F53" s="2">
-        <v>35.457099999999997</v>
+        <v>6.9627999999999997</v>
       </c>
       <c r="G53" s="2">
-        <v>129.40020000000001</v>
+        <v>79.841700000000003</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="E54" s="2">
-        <v>100334</v>
+        <v>100481</v>
       </c>
       <c r="F54" s="2">
-        <v>6.9627999999999997</v>
+        <v>31.8307</v>
       </c>
       <c r="G54" s="2">
-        <v>79.841700000000003</v>
+        <v>-116.6264</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E55" s="2">
-        <v>100481</v>
+        <v>100918</v>
       </c>
       <c r="F55" s="2">
-        <v>31.8307</v>
+        <v>17.923300000000001</v>
       </c>
       <c r="G55" s="2">
-        <v>-116.6264</v>
+        <v>-102.1619</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E56" s="2">
-        <v>100918</v>
+        <v>101002</v>
       </c>
       <c r="F56" s="2">
-        <v>17.923300000000001</v>
+        <v>19.0688</v>
       </c>
       <c r="G56" s="2">
-        <v>-102.1619</v>
+        <v>-104.31870000000001</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E57" s="2">
-        <v>101002</v>
+        <v>100243</v>
       </c>
       <c r="F57" s="2">
-        <v>19.0688</v>
+        <v>5.3951000000000002</v>
       </c>
       <c r="G57" s="2">
-        <v>-104.31870000000001</v>
+        <v>100.349</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E58" s="2">
-        <v>100243</v>
+        <v>101432</v>
       </c>
       <c r="F58" s="2">
-        <v>5.3951000000000002</v>
+        <v>1.4287000000000001</v>
       </c>
       <c r="G58" s="2">
-        <v>100.349</v>
+        <v>103.89919999999999</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E59" s="2">
-        <v>101432</v>
+        <v>100833</v>
       </c>
       <c r="F59" s="2">
-        <v>1.4287000000000001</v>
+        <v>3.0344000000000002</v>
       </c>
       <c r="G59" s="2">
-        <v>103.89919999999999</v>
+        <v>101.3471</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E60" s="2">
         <v>100833</v>
@@ -2720,154 +2716,154 @@
     </row>
     <row r="61" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E61" s="2">
-        <v>100833</v>
+        <v>100362</v>
       </c>
       <c r="F61" s="2">
-        <v>3.0344000000000002</v>
+        <v>9.3960000000000008</v>
       </c>
       <c r="G61" s="2">
-        <v>101.3471</v>
+        <v>-79.922700000000006</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="E62" s="2">
-        <v>100362</v>
+        <v>100268</v>
       </c>
       <c r="F62" s="2">
-        <v>9.3960000000000008</v>
+        <v>-12.0784</v>
       </c>
       <c r="G62" s="2">
-        <v>-79.922700000000006</v>
+        <v>-77.150000000000006</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E63" s="2">
-        <v>100268</v>
+        <v>100292</v>
       </c>
       <c r="F63" s="2">
-        <v>-12.0784</v>
+        <v>10.295400000000001</v>
       </c>
       <c r="G63" s="2">
-        <v>-77.150000000000006</v>
+        <v>123.91670000000001</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E64" s="2">
-        <v>100292</v>
+        <v>100265</v>
       </c>
       <c r="F64" s="2">
-        <v>10.295400000000001</v>
+        <v>8.4977999999999998</v>
       </c>
       <c r="G64" s="2">
-        <v>123.91670000000001</v>
+        <v>124.6722</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E65" s="2">
-        <v>100265</v>
+        <v>100400</v>
       </c>
       <c r="F65" s="2">
-        <v>8.4977999999999998</v>
+        <v>7.0677000000000003</v>
       </c>
       <c r="G65" s="2">
-        <v>124.6722</v>
+        <v>125.63500000000001</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E66" s="2">
-        <v>100400</v>
+        <v>101065</v>
       </c>
       <c r="F66" s="2">
-        <v>7.0677000000000003</v>
+        <v>14.595499999999999</v>
       </c>
       <c r="G66" s="2">
-        <v>125.63500000000001</v>
+        <v>120.9335</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E67" s="2">
         <v>101065</v>
@@ -2881,530 +2877,507 @@
     </row>
     <row r="68" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E68" s="2">
-        <v>101065</v>
+        <v>101736</v>
       </c>
       <c r="F68" s="2">
-        <v>14.595499999999999</v>
+        <v>14.8064</v>
       </c>
       <c r="G68" s="2">
-        <v>120.9335</v>
+        <v>120.2818</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E69" s="2">
-        <v>101736</v>
+        <v>101298</v>
       </c>
       <c r="F69" s="2">
-        <v>14.8064</v>
+        <v>24.771599999999999</v>
       </c>
       <c r="G69" s="2">
-        <v>120.2818</v>
+        <v>67.304599999999994</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="E70" s="2">
-        <v>101298</v>
+        <v>100761</v>
       </c>
       <c r="F70" s="2">
-        <v>24.771599999999999</v>
+        <v>21.442499999999999</v>
       </c>
       <c r="G70" s="2">
-        <v>67.304599999999994</v>
+        <v>39.146799999999999</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E71" s="2">
-        <v>100761</v>
+        <v>101605</v>
       </c>
       <c r="F71" s="2">
-        <v>21.442499999999999</v>
+        <v>1.2063999999999999</v>
       </c>
       <c r="G71" s="2">
-        <v>39.146799999999999</v>
+        <v>103.6842</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E72" s="2">
-        <v>101605</v>
+        <v>100187</v>
       </c>
       <c r="F72" s="2">
-        <v>1.2063999999999999</v>
+        <v>13.7165</v>
       </c>
       <c r="G72" s="2">
-        <v>103.6842</v>
+        <v>100.5107</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E73" s="2">
-        <v>100187</v>
+        <v>100921</v>
       </c>
       <c r="F73" s="2">
-        <v>13.7165</v>
+        <v>13.065099999999999</v>
       </c>
       <c r="G73" s="2">
-        <v>100.5107</v>
+        <v>100.8625</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E74" s="2">
-        <v>100921</v>
+        <v>100803</v>
       </c>
       <c r="F74" s="2">
-        <v>13.065099999999999</v>
+        <v>25.166499999999999</v>
       </c>
       <c r="G74" s="2">
-        <v>100.8625</v>
+        <v>121.749</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E75" s="2">
-        <v>100803</v>
+        <v>100790</v>
       </c>
       <c r="F75" s="2">
-        <v>25.166499999999999</v>
+        <v>22.621400000000001</v>
       </c>
       <c r="G75" s="2">
-        <v>121.749</v>
+        <v>120.2473</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E76" s="2">
-        <v>100790</v>
+        <v>101776</v>
       </c>
       <c r="F76" s="2">
-        <v>22.621400000000001</v>
+        <v>25.151599999999998</v>
       </c>
       <c r="G76" s="2">
-        <v>120.2473</v>
+        <v>121.3428</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E77" s="2">
-        <v>101776</v>
+        <v>101785</v>
       </c>
       <c r="F77" s="2">
-        <v>25.151599999999998</v>
+        <v>24.302700000000002</v>
       </c>
       <c r="G77" s="2">
-        <v>121.3428</v>
+        <v>120.4738</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E78" s="2">
-        <v>101785</v>
+        <v>100307</v>
       </c>
       <c r="F78" s="2">
-        <v>24.302700000000002</v>
+        <v>32.784999999999997</v>
       </c>
       <c r="G78" s="2">
-        <v>120.4738</v>
+        <v>-79.916200000000003</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E79" s="2">
-        <v>100307</v>
+        <v>100917</v>
       </c>
       <c r="F79" s="2">
-        <v>32.784999999999997</v>
+        <v>33.698399999999999</v>
       </c>
       <c r="G79" s="2">
-        <v>-79.916200000000003</v>
+        <v>-118.24299999999999</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E80" s="2">
-        <v>100917</v>
+        <v>101238</v>
       </c>
       <c r="F80" s="2">
-        <v>33.698399999999999</v>
+        <v>40.698500000000003</v>
       </c>
       <c r="G80" s="2">
-        <v>-118.24299999999999</v>
+        <v>-74.007099999999994</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E81" s="2">
-        <v>101238</v>
+        <v>101239</v>
       </c>
       <c r="F81" s="2">
-        <v>40.698500000000003</v>
+        <v>37.800899999999999</v>
       </c>
       <c r="G81" s="2">
-        <v>-74.007099999999994</v>
+        <v>-122.352</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E82" s="2">
-        <v>101239</v>
+        <v>101213</v>
       </c>
       <c r="F82" s="2">
-        <v>37.800899999999999</v>
+        <v>36.848999999999997</v>
       </c>
       <c r="G82" s="2">
-        <v>-122.352</v>
+        <v>-76.300700000000006</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E83" s="2">
-        <v>101213</v>
+        <v>101748</v>
       </c>
       <c r="F83" s="2">
-        <v>36.848999999999997</v>
+        <v>32.1325</v>
       </c>
       <c r="G83" s="2">
-        <v>-76.300700000000006</v>
+        <v>-81.138099999999994</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E84" s="2">
-        <v>101748</v>
+        <v>100266</v>
       </c>
       <c r="F84" s="2">
-        <v>32.1325</v>
+        <v>20.972899999999999</v>
       </c>
       <c r="G84" s="2">
-        <v>-81.138099999999994</v>
+        <v>107.06270000000001</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E85" s="2">
-        <v>100266</v>
+        <v>100396</v>
       </c>
       <c r="F85" s="2">
-        <v>20.972899999999999</v>
+        <v>16.099699999999999</v>
       </c>
       <c r="G85" s="2">
-        <v>107.06270000000001</v>
+        <v>108.2182</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E86" s="2">
-        <v>100396</v>
+        <v>100628</v>
       </c>
       <c r="F86" s="2">
-        <v>16.099699999999999</v>
+        <v>20.869299999999999</v>
       </c>
       <c r="G86" s="2">
-        <v>108.2182</v>
+        <v>106.6892</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E87" s="2">
-        <v>100628</v>
+        <v>100642</v>
       </c>
       <c r="F87" s="2">
-        <v>20.869299999999999</v>
+        <v>10.7798</v>
       </c>
       <c r="G87" s="2">
-        <v>106.6892</v>
+        <v>106.70950000000001</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E88" s="2">
-        <v>100642</v>
+        <v>101918</v>
       </c>
       <c r="F88" s="2">
-        <v>10.7798</v>
+        <v>-33.033799999999999</v>
       </c>
       <c r="G88" s="2">
-        <v>106.70950000000001</v>
+        <v>-71.613600000000005</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="E89" s="2">
-        <v>101918</v>
+        <v>100253</v>
       </c>
       <c r="F89" s="2">
-        <v>-33.033799999999999</v>
+        <v>35.044499999999999</v>
       </c>
       <c r="G89" s="2">
-        <v>-71.613600000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="2">
-        <v>100253</v>
-      </c>
-      <c r="F90" s="2">
-        <v>35.044499999999999</v>
-      </c>
-      <c r="G90" s="2">
         <v>128.7741</v>
       </c>
     </row>
